--- a/table_results.xlsx
+++ b/table_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buehl\Documents\MarkFor\TSM_MarkFor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buehl\OneDrive\Dokumente\Schule lokal\m\TSM_MarkFor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14D4E0-A0D4-4647-93A6-0D17314C8E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5243BC-D253-40D3-A1A2-DCAAABC17A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64456FA6-D92D-4932-A066-5C03D8E1173C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64456FA6-D92D-4932-A066-5C03D8E1173C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Full Model</t>
   </si>
@@ -60,15 +82,13 @@
     <t>Parameters</t>
   </si>
   <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Predictions</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>R</t>
     </r>
     <r>
@@ -85,10 +105,29 @@
     </r>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Predictions</t>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>One</t>
   </si>
 </sst>
 </file>
@@ -98,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +162,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +193,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -172,6 +249,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,30 +568,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6E574F-F19D-4CD0-8BFA-CCB225194DAB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.64453125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="16.350000000000001" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -520,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -529,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -548,8 +631,21 @@
       <c r="F3" s="7">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="J3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -568,8 +664,23 @@
       <c r="F4" s="7">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>31.39</v>
+      </c>
+      <c r="M4" s="12">
+        <v>43.41</v>
+      </c>
+      <c r="N4" s="13">
+        <v>104.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -587,6 +698,151 @@
       </c>
       <c r="F5" s="7">
         <v>1.54</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="11">
+        <v>125.5</v>
+      </c>
+      <c r="M5" s="12">
+        <v>134.1</v>
+      </c>
+      <c r="N5" s="13">
+        <v>171.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.96830000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.433</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9:D14">TRANSPOSE(A1:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Parameters</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Full Model</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Height+Width</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <v>Model</v>
+      </c>
+      <c r="B10" t="str">
+        <v>RSS</v>
+      </c>
+      <c r="C10">
+        <v>31.39</v>
+      </c>
+      <c r="D10">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="str">
+        <v>AIC</v>
+      </c>
+      <c r="C11">
+        <v>125.5</v>
+      </c>
+      <c r="D11">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="str">
+        <v>R2</v>
+      </c>
+      <c r="C12">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="D12">
+        <v>0.98680000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <v>Predictions</v>
+      </c>
+      <c r="B13" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="C13">
+        <v>0.433</v>
+      </c>
+      <c r="D13">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="str">
+        <v>MSE</v>
+      </c>
+      <c r="C14">
+        <v>1.56</v>
+      </c>
+      <c r="D14">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
